--- a/share/doc/validation/Scenarios/RenalValidation.xlsx
+++ b/share/doc/validation/Scenarios/RenalValidation.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectPrograms\BioGears\core\share\doc\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6315" yWindow="690" windowWidth="18360" windowHeight="4725" activeTab="6"/>
+    <workbookView xWindow="-6312" yWindow="696" windowWidth="18360" windowHeight="4728"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -23,12 +28,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$F$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">UnilateralStenosis!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="118">
   <si>
     <t>Action</t>
   </si>
@@ -201,9 +206,6 @@
     <t>Decrease @cite textor2011atherosclerotic</t>
   </si>
   <si>
-    <t>Initiate 250 mL/min Hemorrhage</t>
-  </si>
-  <si>
     <t>12. Corcoran, A. C., and Irvine H. Page. "Effects of hypotension due to hemorrhage and of blood transfusion on renal function in dogs." The Journal of experimental medicine 78.3 (1943): 205-224.</t>
   </si>
   <si>
@@ -373,12 +375,24 @@
   </si>
   <si>
     <t>Initiate %Environment Change</t>
+  </si>
+  <si>
+    <t>Initiate 100 mL/min Hemorrhage</t>
+  </si>
+  <si>
+    <t>Initiate 150 mL/min Hemorrhage</t>
+  </si>
+  <si>
+    <t>Starvation</t>
+  </si>
+  <si>
+    <t>Patient has not eaten for 72 hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -663,6 +677,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -670,7 +695,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -770,6 +795,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -782,6 +814,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -830,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,7 +900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1079,29 +1114,29 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="54.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1152,7 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
@@ -1128,10 +1163,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
@@ -1152,25 +1187,25 @@
         <v>51</v>
       </c>
       <c r="N2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>73</v>
-      </c>
       <c r="S2" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -1181,49 +1216,49 @@
         <v>23</v>
       </c>
       <c r="D3" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>51</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" s="25" t="s">
         <v>51</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="25" t="s">
         <v>51</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1234,49 +1269,49 @@
         <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
       <c r="I4" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>78</v>
-      </c>
       <c r="M4" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" s="32">
         <v>1</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P4" s="33">
         <v>1</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R4" s="34">
         <v>0</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -1287,49 +1322,49 @@
         <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="32">
         <v>7</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P5" s="33">
         <v>1</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R5" s="34">
         <v>0</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -1340,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -1352,37 +1387,37 @@
         <v>51</v>
       </c>
       <c r="J6" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="32">
         <v>7</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P6" s="33">
         <v>1</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R6" s="34">
         <v>0</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="34.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1393,10 +1428,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
         <v>2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -1405,37 +1440,37 @@
         <v>51</v>
       </c>
       <c r="J7" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="M7" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" s="32">
         <v>8</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" s="33">
         <v>0</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R7" s="34">
         <v>0</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
@@ -1446,10 +1481,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8">
         <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -1458,58 +1493,60 @@
         <v>51</v>
       </c>
       <c r="J8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>86</v>
-      </c>
       <c r="M8" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" s="32">
         <v>8</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P8" s="33">
         <v>0</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R8" s="34">
         <v>0</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="41">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42">
         <v>3</v>
       </c>
+      <c r="F9" s="43">
+        <v>0</v>
+      </c>
       <c r="I9" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>51</v>
@@ -1518,33 +1555,49 @@
         <v>47</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="32">
         <v>3</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P9" s="33">
         <v>0</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R9" s="34">
         <v>0</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3</v>
+      </c>
       <c r="I10" s="25" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>51</v>
@@ -1553,28 +1606,28 @@
         <v>49</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N10" s="32">
         <v>1</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P10" s="33">
         <v>3</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R10" s="34">
         <v>0</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="I11" s="25" t="s">
         <v>51</v>
       </c>
@@ -1586,94 +1639,94 @@
         <v>50</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" s="32">
         <f>SUM(N4:N10)</f>
         <v>35</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P11" s="33">
         <f>SUM(P4:P10)</f>
         <v>6</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R11" s="34">
         <f>SUM(R4:R10)</f>
         <v>0</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="42" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1696,36 +1749,36 @@
   </sheetPr>
   <dimension ref="B1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" customWidth="1"/>
-    <col min="13" max="13" width="36.85546875" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="38.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.88671875" customWidth="1"/>
+    <col min="13" max="13" width="36.88671875" customWidth="1"/>
+    <col min="14" max="14" width="30.5546875" customWidth="1"/>
+    <col min="15" max="15" width="31.5546875" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>51</v>
@@ -1767,7 +1820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
@@ -1814,7 +1867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>51</v>
       </c>
@@ -1834,29 +1887,29 @@
       <c r="H4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
-      </c>
       <c r="P4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1876,38 +1929,38 @@
   </sheetPr>
   <dimension ref="B1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1"/>
     <col min="22" max="22" width="3" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" customWidth="1"/>
-    <col min="24" max="24" width="4.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" customWidth="1"/>
+    <col min="24" max="24" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>51</v>
       </c>
@@ -1924,7 +1977,7 @@
         <v>51</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>51</v>
@@ -1966,7 +2019,7 @@
         <v>51</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V1" s="22" t="s">
         <v>51</v>
@@ -1978,7 +2031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>51</v>
       </c>
@@ -2049,18 +2102,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>51</v>
@@ -2069,55 +2122,55 @@
         <v>120</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>54</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>53</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="20" t="s">
         <v>53</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S3" s="20" t="s">
         <v>53</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U3" s="20" t="s">
         <v>56</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" s="20" t="s">
         <v>56</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2137,38 +2190,38 @@
   </sheetPr>
   <dimension ref="B1:X3"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H8" sqref="H6:H8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
+    <col min="18" max="18" width="2.5546875" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" customWidth="1"/>
+    <col min="24" max="24" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>51</v>
       </c>
@@ -2185,7 +2238,7 @@
         <v>51</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>51</v>
@@ -2227,7 +2280,7 @@
         <v>51</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V1" s="22" t="s">
         <v>51</v>
@@ -2239,7 +2292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>51</v>
       </c>
@@ -2310,18 +2363,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>51</v>
@@ -2330,55 +2383,55 @@
         <v>120</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>54</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>53</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="20" t="s">
         <v>53</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S3" s="20" t="s">
         <v>53</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U3" s="20" t="s">
         <v>56</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" s="20" t="s">
         <v>56</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2395,32 +2448,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="15" width="27" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="25.109375" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>51</v>
       </c>
@@ -2437,13 +2490,13 @@
         <v>51</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>51</v>
@@ -2461,7 +2514,7 @@
         <v>51</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P1" s="22" t="s">
         <v>51</v>
@@ -2473,7 +2526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>51</v>
       </c>
@@ -2526,12 +2579,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>51</v>
@@ -2547,37 +2600,37 @@
         <v>51</v>
       </c>
       <c r="I3" s="17">
-        <v>270</v>
+        <v>930</v>
       </c>
       <c r="J3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="L3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>51</v>
       </c>
@@ -2592,40 +2645,40 @@
         <v>51</v>
       </c>
       <c r="G4" s="15">
-        <v>270</v>
+        <v>930</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="15">
-        <v>670</v>
+        <v>1230</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2637,32 +2690,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="34" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="24.6640625" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="30.140625" customWidth="1"/>
+    <col min="17" max="17" width="30.109375" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>51</v>
       </c>
@@ -2679,13 +2732,13 @@
         <v>51</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>51</v>
@@ -2703,7 +2756,7 @@
         <v>51</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P1" s="22" t="s">
         <v>51</v>
@@ -2715,7 +2768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>51</v>
       </c>
@@ -2768,12 +2821,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>51</v>
@@ -2789,37 +2842,37 @@
         <v>51</v>
       </c>
       <c r="I3" s="17">
-        <v>520</v>
+        <v>1830</v>
       </c>
       <c r="J3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="L3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>51</v>
       </c>
@@ -2834,40 +2887,40 @@
         <v>51</v>
       </c>
       <c r="G4" s="15">
-        <v>520</v>
+        <v>1830</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="15">
-        <v>500</v>
+        <v>2130</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>65</v>
-      </c>
       <c r="R4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2879,31 +2932,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="31.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>51</v>
       </c>
@@ -2920,13 +2973,13 @@
         <v>51</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>51</v>
@@ -2938,7 +2991,7 @@
         <v>51</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N4" s="22" t="s">
         <v>51</v>
@@ -2950,7 +3003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>51</v>
       </c>
@@ -2997,12 +3050,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>51</v>
@@ -3021,25 +3074,25 @@
         <v>900</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3051,32 +3104,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="F1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="31.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="29.5703125" customWidth="1"/>
+    <col min="17" max="17" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="79.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>51</v>
       </c>
@@ -3093,13 +3146,13 @@
         <v>51</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>51</v>
@@ -3117,7 +3170,7 @@
         <v>51</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>51</v>
@@ -3129,7 +3182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
@@ -3182,7 +3235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>51</v>
       </c>
@@ -3206,31 +3259,31 @@
         <v>14400</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="R4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3246,28 +3299,28 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="31.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="31.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="30.109375" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="29.5703125" customWidth="1"/>
+    <col min="17" max="17" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>51</v>
       </c>
@@ -3284,101 +3337,101 @@
         <v>51</v>
       </c>
       <c r="G2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>51</v>
@@ -3397,31 +3450,31 @@
         <v>4</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/share/doc/validation/Scenarios/RenalValidation.xlsx
+++ b/share/doc/validation/Scenarios/RenalValidation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6312" yWindow="696" windowWidth="18360" windowHeight="4728"/>
+    <workbookView xWindow="-6312" yWindow="696" windowWidth="18360" windowHeight="4728" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="118">
   <si>
     <t>Action</t>
   </si>
@@ -695,7 +695,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -792,9 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -802,6 +799,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1114,8 +1117,8 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,11 +1149,11 @@
       <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1292,19 +1295,19 @@
       <c r="M4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="32">
-        <v>1</v>
+      <c r="N4" s="7">
+        <v>2</v>
       </c>
       <c r="O4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="33">
-        <v>1</v>
+      <c r="P4" s="8">
+        <v>0</v>
       </c>
       <c r="Q4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="34">
+      <c r="R4" s="9">
         <v>0</v>
       </c>
       <c r="S4" s="25" t="s">
@@ -1345,19 +1348,19 @@
       <c r="M5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="32">
-        <v>7</v>
+      <c r="N5" s="7">
+        <v>6</v>
       </c>
       <c r="O5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="33">
-        <v>1</v>
+      <c r="P5" s="8">
+        <v>2</v>
       </c>
       <c r="Q5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="9">
         <v>0</v>
       </c>
       <c r="S5" s="25" t="s">
@@ -1398,19 +1401,19 @@
       <c r="M6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="32">
-        <v>7</v>
+      <c r="N6" s="7">
+        <v>6</v>
       </c>
       <c r="O6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="33">
-        <v>1</v>
+      <c r="P6" s="8">
+        <v>2</v>
       </c>
       <c r="Q6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="9">
         <v>0</v>
       </c>
       <c r="S6" s="25" t="s">
@@ -1451,19 +1454,19 @@
       <c r="M7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="7">
         <v>8</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="8">
         <v>0</v>
       </c>
       <c r="Q7" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="9">
         <v>0</v>
       </c>
       <c r="S7" s="25" t="s">
@@ -1504,19 +1507,19 @@
       <c r="M8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="7">
         <v>8</v>
       </c>
       <c r="O8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="8">
         <v>0</v>
       </c>
       <c r="Q8" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="9">
         <v>0</v>
       </c>
       <c r="S8" s="25" t="s">
@@ -1524,22 +1527,22 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>1</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>3</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <v>0</v>
       </c>
       <c r="I9" s="25" t="s">
@@ -1557,19 +1560,19 @@
       <c r="M9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="32">
-        <v>3</v>
+      <c r="N9" s="7">
+        <v>1</v>
       </c>
       <c r="O9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="33">
-        <v>0</v>
+      <c r="P9" s="8">
+        <v>2</v>
       </c>
       <c r="Q9" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="9">
         <v>0</v>
       </c>
       <c r="S9" s="25" t="s">
@@ -1608,19 +1611,19 @@
       <c r="M10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="32">
-        <v>1</v>
+      <c r="N10" s="7">
+        <v>3</v>
       </c>
       <c r="O10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="33">
-        <v>3</v>
+      <c r="P10" s="8">
+        <v>1</v>
       </c>
       <c r="Q10" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="9">
         <v>0</v>
       </c>
       <c r="S10" s="25" t="s">
@@ -1631,32 +1634,31 @@
       <c r="I11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="30" t="s">
+        <v>116</v>
+      </c>
       <c r="K11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="35" t="s">
-        <v>50</v>
+      <c r="L11" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="32">
-        <f>SUM(N4:N10)</f>
-        <v>35</v>
+      <c r="N11" s="40">
+        <v>1</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="33">
-        <f>SUM(P4:P10)</f>
-        <v>6</v>
+      <c r="P11" s="41">
+        <v>3</v>
       </c>
       <c r="Q11" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R11" s="34">
-        <f>SUM(R4:R10)</f>
+      <c r="R11" s="42">
         <v>0</v>
       </c>
       <c r="S11" s="25" t="s">
@@ -1668,6 +1670,40 @@
         <v>18</v>
       </c>
       <c r="B12" s="12"/>
+      <c r="I12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="32">
+        <f>SUM(N4:N11)</f>
+        <v>35</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="33">
+        <f>SUM(P4:P11)</f>
+        <v>10</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="34">
+        <f>SUM(R4:R11)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -1749,8 +1785,8 @@
   </sheetPr>
   <dimension ref="B1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1929,8 +1965,8 @@
   </sheetPr>
   <dimension ref="B1:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2190,8 +2226,8 @@
   </sheetPr>
   <dimension ref="B1:X3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,7 +2485,7 @@
   <dimension ref="B1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B1" sqref="B1:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2690,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2933,7 +2969,7 @@
   <dimension ref="B3:P6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B4" sqref="B4:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,7 +3141,7 @@
   <dimension ref="B1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B2" sqref="B2:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3295,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
